--- a/biology/Zoologie/Atypus_karschi/Atypus_karschi.xlsx
+++ b/biology/Zoologie/Atypus_karschi/Atypus_karschi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atypus karschi est une espèce d'araignées mygalomorphes de la famille des Atypidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atypus karschi est une espèce d'araignées mygalomorphes de la famille des Atypidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Japon, à Taïwan, en Corée du Sud et en Chine[1].
-Elle a été introduite aux États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Japon, à Taïwan, en Corée du Sud et en Chine.
+Elle a été introduite aux États-Unis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 10 à 15 mm et les femelles de 12 à 20 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 10 à 15 mm et les femelles de 12 à 20 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Dönitz en 1887.
-Atypus snetsingeri[3] a été placée en synonymie par en Řezáč et al. en 2022[4].
+Atypus snetsingeri a été placée en synonymie par en Řezáč et al. en 2022.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ferdinand Karsch[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ferdinand Karsch.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dönitz, 1887 : « Über die Lebensweise zweier Vogelspinnen aus Japan. » Sitzungsberichte der Gesellschaft Naturforschender Freunde zu Berlin, vol. 1887, p. 8-10 (texte intégral).</t>
         </is>
